--- a/default_solv_candidate.xlsx
+++ b/default_solv_candidate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/sh19129_bristol_ac_uk/Documents/Documents/MyProject/ML/HSP_python/calculation/cal_20221227_solv_pred_v2/hsp_toolkit_solv_pred_v_2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1173" documentId="11_F25DC773A252ABDACC1048E8991D7BDE5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD02CC29-BFF5-4F0F-80CC-9AE027D3441C}"/>
+  <xr:revisionPtr revIDLastSave="1194" documentId="11_F25DC773A252ABDACC1048E8991D7BDE5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E788B45-EB16-4A16-985D-9B20910B597B}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mix" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>CAS</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Solvent</t>
   </si>
   <si>
-    <t>71-23-8</t>
-  </si>
-  <si>
-    <t>1-propanol</t>
-  </si>
-  <si>
     <t>67-63-0</t>
   </si>
   <si>
@@ -63,36 +57,6 @@
     <t>acetonitrile</t>
   </si>
   <si>
-    <t>71-43-2</t>
-  </si>
-  <si>
-    <t>benzene</t>
-  </si>
-  <si>
-    <t>108-90-7</t>
-  </si>
-  <si>
-    <t>chlorobenzene</t>
-  </si>
-  <si>
-    <t>67-66-3</t>
-  </si>
-  <si>
-    <t>chloroform</t>
-  </si>
-  <si>
-    <t>110-82-7</t>
-  </si>
-  <si>
-    <t>Cyclohexane</t>
-  </si>
-  <si>
-    <t>68-12-2</t>
-  </si>
-  <si>
-    <t>dimethylformamide</t>
-  </si>
-  <si>
     <t>67-68-5</t>
   </si>
   <si>
@@ -120,51 +84,15 @@
     <t>ethyl alcohol</t>
   </si>
   <si>
-    <t>56-81-5</t>
-  </si>
-  <si>
     <t>Glycerol</t>
   </si>
   <si>
-    <t>142-82-5</t>
-  </si>
-  <si>
-    <t>Heptane</t>
-  </si>
-  <si>
-    <t>110-54-3</t>
-  </si>
-  <si>
-    <t>Hexane</t>
-  </si>
-  <si>
-    <t>m-Cresol</t>
-  </si>
-  <si>
-    <t>108-67-8</t>
-  </si>
-  <si>
-    <t>Mesitylene</t>
-  </si>
-  <si>
     <t>67-56-1</t>
   </si>
   <si>
     <t>methanol</t>
   </si>
   <si>
-    <t>74-87-3</t>
-  </si>
-  <si>
-    <t>Methylcyclohexane</t>
-  </si>
-  <si>
-    <t>75-09-2</t>
-  </si>
-  <si>
-    <t>methylene dichloride</t>
-  </si>
-  <si>
     <t>127-19-5</t>
   </si>
   <si>
@@ -174,45 +102,15 @@
     <t>872-50-4</t>
   </si>
   <si>
-    <t>N-Methyl-2-pyrrolidone</t>
-  </si>
-  <si>
     <t>616-47-7</t>
   </si>
   <si>
-    <t>NMI</t>
-  </si>
-  <si>
-    <t>109-66-0</t>
-  </si>
-  <si>
-    <t>Pentane</t>
-  </si>
-  <si>
-    <t>108-95-2</t>
-  </si>
-  <si>
-    <t>phenol</t>
-  </si>
-  <si>
-    <t>108-32-7</t>
-  </si>
-  <si>
-    <t>Propylene carbonate</t>
-  </si>
-  <si>
     <t>110-86-1</t>
   </si>
   <si>
     <t>pyridine</t>
   </si>
   <si>
-    <t>91-22-5</t>
-  </si>
-  <si>
-    <t>Quinoline</t>
-  </si>
-  <si>
     <t>75-65-0</t>
   </si>
   <si>
@@ -225,34 +123,19 @@
     <t>Tetrahydrofuran</t>
   </si>
   <si>
-    <t>108-88-3</t>
-  </si>
-  <si>
-    <t>toluene</t>
-  </si>
-  <si>
-    <t>79-01-6</t>
-  </si>
-  <si>
-    <t>Trichloroethylene</t>
-  </si>
-  <si>
     <t>121-44-8</t>
   </si>
   <si>
     <t>Triethylamine</t>
   </si>
   <si>
-    <t>1330-20-7</t>
-  </si>
-  <si>
-    <t>Xylene</t>
-  </si>
-  <si>
     <t>75-05-8</t>
   </si>
   <si>
-    <t>108-39-4</t>
+    <t>N-Methyl-2-pyrrolidone(NMP)</t>
+  </si>
+  <si>
+    <t>N-methylimidazole(NMI)</t>
   </si>
 </sst>
 </file>
@@ -589,16 +472,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77F644C-01AA-4210-8A08-C9E649D34503}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -611,290 +494,130 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -905,12 +628,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -919,7 +636,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002963E37866ED33418AA3C2E7C2CBC48C" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="722427c93779db870d9b88208615f41a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3daf175e-d399-4f27-8e26-d8d48fd6e34f" xmlns:ns3="811be916-0eb4-48a2-b739-bdd7ef3c3bb9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a852b18fc1bf161a89c57f3c04037867" ns2:_="" ns3:_="">
     <xsd:import namespace="3daf175e-d399-4f27-8e26-d8d48fd6e34f"/>
@@ -1130,16 +847,13 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCC6C4B-3617-4EB2-A0A6-328E290B3C20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{440AC86F-A7D9-4E52-9514-D7770551CDF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1147,7 +861,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C86B4E36-C5CD-4621-AE12-D0AE4890F71B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1164,4 +878,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCC6C4B-3617-4EB2-A0A6-328E290B3C20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>